--- a/doc/results.xlsx
+++ b/doc/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="2440" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,6 +89,1194 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Full Associative</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.579482471017358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.618962144410892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.739347938509002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.849145226006427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.34830813457473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38024655188029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.559578972923965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83766576243468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0081273510273371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.299620374855808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.263781923289026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0704314690135765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.00765881752691988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.181719647473614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.140255590977083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000202449016690018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2140948472"/>
+        <c:axId val="2130405256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140948472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2130405256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2130405256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2140948472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Way</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Associative</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$18:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.30650815371976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.319190788920249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.406606098755476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.485409106555625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$22:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.119025135264145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.107736678814413</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.264882520749312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.529306459223505</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$26:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.00510616708453755</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0701259220797303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.72667344155754E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000199004361779173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$30:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.00606895820420913</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.017500901653531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.44264049276856E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000103943972748308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2144182904"/>
+        <c:axId val="2144177096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2144182904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144177096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2144177096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144182904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>4 Way</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Associative</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$34:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$34:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.250861425602061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.274350789313464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.309835972382167</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.402484498650018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>65536</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0839545597239506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0532241889388787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129229230463287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.331036916870284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$42:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$42:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.00530382178620546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.016331149220678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.42535936412718E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000102594312637041</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2097152</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$46:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16384.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$46:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.00495720086777908</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00261654778376946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.78191136367079E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.47115949582177E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2147091384"/>
+        <c:axId val="2147075080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2147091384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2147075080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2147075080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2147091384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -458,7 +1646,8 @@
         <v>49642128</v>
       </c>
       <c r="F2" s="1">
-        <v>0.57948247100000005</v>
+        <f>D2/E2</f>
+        <v>0.5794824710173585</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -478,7 +1667,8 @@
         <v>49642128</v>
       </c>
       <c r="F3" s="1">
-        <v>0.61896214400000005</v>
+        <f>D3/E3</f>
+        <v>0.61896214441089226</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -498,7 +1688,8 @@
         <v>49642128</v>
       </c>
       <c r="F4" s="1">
-        <v>0.73934793899999995</v>
+        <f>D4/E4</f>
+        <v>0.73934793850900182</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -518,195 +1709,218 @@
         <v>49642128</v>
       </c>
       <c r="F5" s="1">
-        <v>0.84914522599999998</v>
+        <f>D5/E5</f>
+        <v>0.84914522600642739</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1024</v>
+        <v>65536</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>15215717</v>
+        <v>17290757</v>
       </c>
       <c r="E6" s="1">
         <v>49642128</v>
       </c>
       <c r="F6" s="1">
-        <v>0.30650815399999998</v>
+        <f>D6/E6</f>
+        <v>0.34830813457473053</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>1024</v>
+        <v>65536</v>
       </c>
       <c r="C7" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1">
-        <v>15845310</v>
+        <v>18876248</v>
       </c>
       <c r="E7" s="1">
         <v>49642128</v>
       </c>
       <c r="F7" s="1">
-        <v>0.31919078899999997</v>
+        <f>D7/E7</f>
+        <v>0.38024655188029005</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1024</v>
+        <v>65536</v>
       </c>
       <c r="C8" s="1">
-        <v>64</v>
+        <v>2048</v>
       </c>
       <c r="D8" s="1">
-        <v>20184792</v>
+        <v>27778691</v>
       </c>
       <c r="E8" s="1">
         <v>49642128</v>
       </c>
       <c r="F8" s="1">
-        <v>0.406606099</v>
+        <f>D8/E8</f>
+        <v>0.55957897292396486</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>1024</v>
+        <v>65536</v>
       </c>
       <c r="C9" s="1">
-        <v>128</v>
+        <v>16384</v>
       </c>
       <c r="D9" s="1">
-        <v>24096741</v>
+        <v>41583511</v>
       </c>
       <c r="E9" s="1">
         <v>49642128</v>
       </c>
       <c r="F9" s="1">
-        <v>0.48540910700000001</v>
+        <f>D9/E9</f>
+        <v>0.83766576243468049</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1024</v>
+        <v>1048576</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>12453295</v>
+        <v>403459</v>
       </c>
       <c r="E10" s="1">
         <v>49642128</v>
       </c>
       <c r="F10" s="1">
-        <v>0.250861426</v>
+        <f>D10/E10</f>
+        <v>8.1273510273371045E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1024</v>
+        <v>1048576</v>
       </c>
       <c r="C11" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1">
-        <v>13619357</v>
+        <v>14873793</v>
       </c>
       <c r="E11" s="1">
         <v>49642128</v>
       </c>
       <c r="F11" s="1">
-        <v>0.27435078899999998</v>
+        <f>D11/E11</f>
+        <v>0.29962037485580795</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>1024</v>
+        <v>1048576</v>
       </c>
       <c r="C12" s="1">
-        <v>64</v>
+        <v>2048</v>
       </c>
       <c r="D12" s="1">
-        <v>15380917</v>
+        <v>13094696</v>
       </c>
       <c r="E12" s="1">
         <v>49642128</v>
       </c>
       <c r="F12" s="1">
-        <v>0.30983597200000002</v>
+        <f>D12/E12</f>
+        <v>0.26378192328902583</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>1024</v>
+        <v>1048576</v>
       </c>
       <c r="C13" s="1">
-        <v>128</v>
+        <v>16384</v>
       </c>
       <c r="D13" s="1">
-        <v>19980187</v>
+        <v>3496368</v>
       </c>
       <c r="E13" s="1">
         <v>49642128</v>
       </c>
       <c r="F13" s="1">
-        <v>0.402484499</v>
+        <f>D13/E13</f>
+        <v>7.0431469013576539E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2097152</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>380200</v>
+      </c>
+      <c r="E14" s="1">
+        <v>49642128</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D14/E14</f>
+        <v>7.6588175269198776E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>65536</v>
+        <v>2097152</v>
       </c>
       <c r="C15" s="1">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1">
-        <v>17290757</v>
+        <v>9020950</v>
       </c>
       <c r="E15" s="1">
         <v>49642128</v>
       </c>
       <c r="F15" s="1">
-        <v>0.34830813500000002</v>
+        <f>D15/E15</f>
+        <v>0.18171964747361355</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -714,19 +1928,20 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>65536</v>
+        <v>2097152</v>
       </c>
       <c r="C16" s="1">
-        <v>128</v>
+        <v>2048</v>
       </c>
       <c r="D16" s="1">
-        <v>18876248</v>
+        <v>6962586</v>
       </c>
       <c r="E16" s="1">
         <v>49642128</v>
       </c>
       <c r="F16" s="1">
-        <v>0.38024655200000002</v>
+        <f>D16/E16</f>
+        <v>0.14025559097708301</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -734,39 +1949,41 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>65536</v>
+        <v>2097152</v>
       </c>
       <c r="C17" s="1">
-        <v>2048</v>
+        <v>16384</v>
       </c>
       <c r="D17" s="1">
-        <v>27778691</v>
+        <v>10050</v>
       </c>
       <c r="E17" s="1">
         <v>49642128</v>
       </c>
       <c r="F17" s="1">
-        <v>0.55957897300000004</v>
+        <f>D17/E17</f>
+        <v>2.024490166900178E-4</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1">
-        <v>65536</v>
+        <v>1024</v>
       </c>
       <c r="C18" s="1">
-        <v>16384</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>41583511</v>
+        <v>15215717</v>
       </c>
       <c r="E18" s="1">
         <v>49642128</v>
       </c>
       <c r="F18" s="1">
-        <v>0.83766576199999998</v>
+        <f>D18/E18</f>
+        <v>0.30650815371975998</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -774,19 +1991,20 @@
         <v>2</v>
       </c>
       <c r="B19" s="1">
-        <v>65536</v>
+        <v>1024</v>
       </c>
       <c r="C19" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D19" s="1">
-        <v>5908661</v>
+        <v>15845310</v>
       </c>
       <c r="E19" s="1">
         <v>49642128</v>
       </c>
       <c r="F19" s="1">
-        <v>0.119025135</v>
+        <f>D19/E19</f>
+        <v>0.31919078892024932</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -794,17 +2012,20 @@
         <v>2</v>
       </c>
       <c r="B20" s="1">
-        <v>65536</v>
+        <v>1024</v>
       </c>
       <c r="C20" s="1">
-        <v>128</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="D20" s="1">
+        <v>20184792</v>
+      </c>
       <c r="E20" s="1">
         <v>49642128</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <f>D20/E20</f>
+        <v>0.40660609875547638</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -812,17 +2033,20 @@
         <v>2</v>
       </c>
       <c r="B21" s="1">
-        <v>65536</v>
+        <v>1024</v>
       </c>
       <c r="C21" s="1">
-        <v>2048</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D21" s="1">
+        <v>24096741</v>
+      </c>
       <c r="E21" s="1">
         <v>49642128</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <f>D21/E21</f>
+        <v>0.48540910655562547</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -833,166 +2057,206 @@
         <v>65536</v>
       </c>
       <c r="C22" s="1">
-        <v>16384</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5908661</v>
+      </c>
       <c r="E22" s="1">
         <v>49642128</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <f>D22/E22</f>
+        <v>0.119025135264145</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
         <v>65536</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5348278</v>
+      </c>
       <c r="E23" s="1">
         <v>49642128</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <f>D23/E23</f>
+        <v>0.10773667881441344</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" s="1">
         <v>65536</v>
       </c>
       <c r="C24" s="1">
-        <v>128</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>2048</v>
+      </c>
+      <c r="D24" s="1">
+        <v>13149332</v>
+      </c>
       <c r="E24" s="1">
         <v>49642128</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <f>D24/E24</f>
+        <v>0.26488252074931196</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="1">
         <v>65536</v>
       </c>
       <c r="C25" s="1">
-        <v>2048</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D25" s="1">
+        <v>26275899</v>
+      </c>
       <c r="E25" s="1">
         <v>49642128</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <f>D25/E25</f>
+        <v>0.52930645922350472</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>65536</v>
+        <v>1048576</v>
       </c>
       <c r="C26" s="1">
-        <v>16384</v>
-      </c>
-      <c r="D26" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>253481</v>
+      </c>
       <c r="E26" s="1">
         <v>49642128</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <f>D26/E26</f>
+        <v>5.1061670845375523E-3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1048576</v>
+      </c>
+      <c r="C27" s="1">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3481200</v>
+      </c>
+      <c r="E27" s="1">
+        <v>49642128</v>
+      </c>
+      <c r="F27" s="1">
+        <f>D27/E27</f>
+        <v>7.0125922079730341E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" s="1">
         <v>1048576</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>2048</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1850</v>
+      </c>
       <c r="E28" s="1">
         <v>49642128</v>
       </c>
       <c r="F28" s="1">
-        <v>0</v>
+        <f>D28/E28</f>
+        <v>3.7266734415575418E-5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
         <v>1048576</v>
       </c>
       <c r="C29" s="1">
-        <v>128</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9879</v>
+      </c>
       <c r="E29" s="1">
         <v>49642128</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <f>D29/E29</f>
+        <v>1.9900436177917272E-4</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>1048576</v>
+        <v>2097152</v>
       </c>
       <c r="C30" s="1">
-        <v>2048</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>301276</v>
+      </c>
       <c r="E30" s="1">
         <v>49642128</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <f>D30/E30</f>
+        <v>6.068958204209135E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="1">
-        <v>1048576</v>
+        <v>2097152</v>
       </c>
       <c r="C31" s="1">
-        <v>16384</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D31" s="1">
+        <v>868782</v>
+      </c>
       <c r="E31" s="1">
         <v>49642128</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <f>D31/E31</f>
+        <v>1.7500901653531048E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1000,17 +2264,20 @@
         <v>2</v>
       </c>
       <c r="B32" s="1">
-        <v>1048576</v>
+        <v>2097152</v>
       </c>
       <c r="C32" s="1">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>2048</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1709</v>
+      </c>
       <c r="E32" s="1">
         <v>49642128</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <f>D32/E32</f>
+        <v>3.4426404927685612E-5</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1018,53 +2285,62 @@
         <v>2</v>
       </c>
       <c r="B33" s="1">
-        <v>1048576</v>
+        <v>2097152</v>
       </c>
       <c r="C33" s="1">
-        <v>128</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D33" s="1">
+        <v>5160</v>
+      </c>
       <c r="E33" s="1">
         <v>49642128</v>
       </c>
       <c r="F33" s="1">
-        <v>0</v>
+        <f>D33/E33</f>
+        <v>1.0394397274830765E-4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1">
-        <v>1048576</v>
+        <v>1024</v>
       </c>
       <c r="C34" s="1">
-        <v>2048</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>12453295</v>
+      </c>
       <c r="E34" s="1">
         <v>49642128</v>
       </c>
       <c r="F34" s="1">
-        <v>0</v>
+        <f>D34/E34</f>
+        <v>0.25086142560206121</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1">
-        <v>1048576</v>
+        <v>1024</v>
       </c>
       <c r="C35" s="1">
-        <v>16384</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D35" s="1">
+        <v>13619357</v>
+      </c>
       <c r="E35" s="1">
         <v>49642128</v>
       </c>
       <c r="F35" s="1">
-        <v>0</v>
+        <f>D35/E35</f>
+        <v>0.27435078931346374</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1072,17 +2348,20 @@
         <v>4</v>
       </c>
       <c r="B36" s="1">
-        <v>1048576</v>
+        <v>1024</v>
       </c>
       <c r="C36" s="1">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="D36" s="1">
+        <v>15380917</v>
+      </c>
       <c r="E36" s="1">
         <v>49642128</v>
       </c>
       <c r="F36" s="1">
-        <v>0</v>
+        <f>D36/E36</f>
+        <v>0.30983597238216704</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1090,17 +2369,20 @@
         <v>4</v>
       </c>
       <c r="B37" s="1">
-        <v>1048576</v>
+        <v>1024</v>
       </c>
       <c r="C37" s="1">
         <v>128</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1">
+        <v>19980187</v>
+      </c>
       <c r="E37" s="1">
         <v>49642128</v>
       </c>
       <c r="F37" s="1">
-        <v>0</v>
+        <f>D37/E37</f>
+        <v>0.40248449865001756</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1108,17 +2390,20 @@
         <v>4</v>
       </c>
       <c r="B38" s="1">
-        <v>1048576</v>
+        <v>65536</v>
       </c>
       <c r="C38" s="1">
-        <v>2048</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4167683</v>
+      </c>
       <c r="E38" s="1">
         <v>49642128</v>
       </c>
       <c r="F38" s="1">
-        <v>0</v>
+        <f>D38/E38</f>
+        <v>8.3954559723950592E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1126,173 +2411,209 @@
         <v>4</v>
       </c>
       <c r="B39" s="1">
-        <v>1048576</v>
+        <v>65536</v>
       </c>
       <c r="C39" s="1">
-        <v>16384</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2642162</v>
+      </c>
       <c r="E39" s="1">
         <v>49642128</v>
       </c>
       <c r="F39" s="1">
-        <v>0</v>
+        <f>D39/E39</f>
+        <v>5.3224188938878689E-2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>65536</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2048</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6415214</v>
+      </c>
+      <c r="E40" s="1">
+        <v>49642128</v>
+      </c>
+      <c r="F40" s="1">
+        <f>D40/E40</f>
+        <v>0.12922923046328716</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1">
-        <v>2097152</v>
+        <v>65536</v>
       </c>
       <c r="C41" s="1">
-        <v>4</v>
+        <v>16384</v>
       </c>
       <c r="D41" s="1">
-        <v>380200</v>
+        <v>16433377</v>
       </c>
       <c r="E41" s="1">
         <v>49642128</v>
       </c>
       <c r="F41" s="1">
-        <v>7.6588180000000004E-3</v>
+        <f>D41/E41</f>
+        <v>0.33103691687028403</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1">
-        <v>2097152</v>
+        <v>1048576</v>
       </c>
       <c r="C42" s="1">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>9020950</v>
+        <v>263293</v>
       </c>
       <c r="E42" s="1">
         <v>49642128</v>
       </c>
       <c r="F42" s="1">
-        <v>0.18171964700000001</v>
+        <f>D42/E42</f>
+        <v>5.3038217862054586E-3</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1">
-        <v>2097152</v>
+        <v>1048576</v>
       </c>
       <c r="C43" s="1">
-        <v>2048</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D43" s="1">
+        <v>810713</v>
+      </c>
       <c r="E43" s="1">
         <v>49642128</v>
       </c>
       <c r="F43" s="1">
-        <v>0</v>
+        <f>D43/E43</f>
+        <v>1.6331149220678048E-2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1">
-        <v>2097152</v>
+        <v>1048576</v>
       </c>
       <c r="C44" s="1">
-        <v>16384</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>2048</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1204</v>
+      </c>
       <c r="E44" s="1">
         <v>49642128</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <f>D44/E44</f>
+        <v>2.4253593641271784E-5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1">
-        <v>2097152</v>
+        <v>1048576</v>
       </c>
       <c r="C45" s="1">
-        <v>4</v>
-      </c>
-      <c r="D45" s="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D45" s="1">
+        <v>5093</v>
+      </c>
       <c r="E45" s="1">
         <v>49642128</v>
       </c>
       <c r="F45" s="1">
-        <v>0</v>
+        <f>D45/E45</f>
+        <v>1.0259431263704086E-4</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1">
         <v>2097152</v>
       </c>
       <c r="C46" s="1">
-        <v>128</v>
-      </c>
-      <c r="D46" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>246086</v>
+      </c>
       <c r="E46" s="1">
         <v>49642128</v>
       </c>
       <c r="F46" s="1">
-        <v>0</v>
+        <f>D46/E46</f>
+        <v>4.957200867779077E-3</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B47" s="1">
         <v>2097152</v>
       </c>
       <c r="C47" s="1">
-        <v>2048</v>
-      </c>
-      <c r="D47" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D47" s="1">
+        <v>129891</v>
+      </c>
       <c r="E47" s="1">
         <v>49642128</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <f>D47/E47</f>
+        <v>2.6165477837694628E-3</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1">
         <v>2097152</v>
       </c>
       <c r="C48" s="1">
-        <v>16384</v>
-      </c>
-      <c r="D48" s="1"/>
+        <v>2048</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1381</v>
+      </c>
       <c r="E48" s="1">
         <v>49642128</v>
       </c>
       <c r="F48" s="1">
-        <v>0</v>
+        <f>D48/E48</f>
+        <v>2.7819113636707919E-5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1303,72 +2624,50 @@
         <v>2097152</v>
       </c>
       <c r="C49" s="1">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2716</v>
+      </c>
       <c r="E49" s="1">
         <v>49642128</v>
       </c>
       <c r="F49" s="1">
-        <v>0</v>
+        <f>D49/E49</f>
+        <v>5.4711594958217748E-5</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="1">
-        <v>4</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2097152</v>
-      </c>
-      <c r="C50" s="1">
-        <v>128</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1">
-        <v>49642128</v>
-      </c>
-      <c r="F50" s="1">
-        <v>0</v>
-      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="1">
-        <v>4</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2097152</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2048</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1">
-        <v>49642128</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0</v>
-      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1">
-        <v>4</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2097152</v>
-      </c>
-      <c r="C52" s="1">
-        <v>16384</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1">
-        <v>49642128</v>
-      </c>
-      <c r="F52" s="1">
-        <v>0</v>
-      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:F52">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
